--- a/tools/Übersetzungen.xlsx
+++ b/tools/Übersetzungen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thors\Documents\GitHub\Roll20_Troubleshooters_CharacterSheet\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Roll20_Troubleshooters_CharacterSheet\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8FDA4C-2E5D-4B42-BB41-8063D5355CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D497805-563D-4ACA-8B35-D7878C1593E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="180" windowWidth="25440" windowHeight="15390" xr2:uid="{F33316C3-AD9A-415B-9BE2-D0A39A638A43}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F33316C3-AD9A-415B-9BE2-D0A39A638A43}"/>
   </bookViews>
   <sheets>
     <sheet name="Übersetzungen" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="768">
   <si>
     <t>Name</t>
   </si>
@@ -1593,13 +1593,803 @@
   </si>
   <si>
     <t>Deutsch</t>
+  </si>
+  <si>
+    <t>"Kennen wir uns nicht von irgendwoher?"</t>
+  </si>
+  <si>
+    <t>#$@$*#@! Schlechtes Karma</t>
+  </si>
+  <si>
+    <t>#$@$*#@! Schlechtes Karma! Deine nächste Probe erhält -2 Pips</t>
+  </si>
+  <si>
+    <t>absorbiert</t>
+  </si>
+  <si>
+    <t>Absorbtion</t>
+  </si>
+  <si>
+    <t>absorviert Schaden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Aufgabenproben sind mit −2 Pips erschwert. Angriffsproben gegen den Ursprung deiner Panik sind mit −5 Pips erschwert. Du kannst dich nicht näher an den Ursprung deiner Panik heranbewegen. Wenn du dich zu Beginn deines Zuges in derselben Zone wie der Ursprung deiner Panik befindest, führe eine Probe auf Willenskraft als Freie Aktion durch. Schlägt sie fehl, musst du dich aus der Zone herausbewegen, bevor du etwas anderes tun kannst.
+Ersetze den Zustand Panisch durch den Zustand Verängstigt, indem du als Hauptaktion eine erfolgreiche Probe auf Willenskraft ablegst.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alle Aufgabenproben sind um −2 Pips erschwert. Du kannst überhaupt keine Verteidigungsaktionen durchführen. Du erhältst 1 WP Absorption.
+Der Zustand Berauscht ist bis zu dreimal stapelbar. Statt dem vierten Berauscht-Zustand, brichst du zusammen und wirst bewusstlos (zählt als Außer Gefecht).
+Hebe einen Berauscht-Zustand am nächsten Morgen auf und danach alle sechs Stunden einen weiteren.
+</t>
+  </si>
+  <si>
+    <t>Alle Proben, etwas mit Hilfe des Hörens zu bemerken, scheitern automatisch. Proben auf Charme, Sprachen, Unterhaltung und sogar Kontakte und Schleichen sind um −2 bis −5 Pips erschwert.
+Wenn die Ursache der Taubheit ein plötzliches lautes Geräusch war, wird der Zustand Taub nach der Szene aufgehoben.</t>
+  </si>
+  <si>
+    <t>Alle Proben, etwas mit Hilfe des Sehens zu bemerken, scheitern automatisch. Proben auf Suchen und Nachforschungen sowie alle Angriffs- und Verteidigungsproben sind um −5 Pips erschwert. Viele Handlungen, wie zum Beispiel Lesen, sind unmöglich.
+Wenn Dunkelheit die Ursache für die Blindheit ist, wird der Zustand Blind aufgehoben, sobald es wieder hell ist.
+Wenn die Ursache der Blindheit vorübergehend ist, wird der Zustand Blind nach der Szene aufgehoben.</t>
+  </si>
+  <si>
+    <t>Am Boden</t>
+  </si>
+  <si>
+    <t>Am Boden!</t>
+  </si>
+  <si>
+    <t>Andere Kompetenzen</t>
+  </si>
+  <si>
+    <t>Angriff</t>
+  </si>
+  <si>
+    <t>Angriff!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angriffsproben sind um −5 Pips erschwert. Sprint- oder Bewegungsaktionen, die eine Aufgabenprobe erfordern, sind ebenfalls um −5 Pips erschwert. Reguläre Sprint- oder Bewegungsaktionen erfordern jetzt eine Aufgabenprobe.
+Andere Aufgabenproben sind um −2 Pips erschwert.
+Insofern der Zustand Benommen nicht durch ein Gift oder eine Krankheit verursacht wurde, kannst du deine Hauptaktion nutzen, um einen Probe auf Willenskraft durchzuführen. Bei Erfolg wird der Zustand Benommen aufgehoben.
+Ansonsten wird der Zustand in der darauffolgenden Szene abgelegt.
+</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Aufmerksamkeit</t>
+  </si>
+  <si>
+    <t>Aufstiege</t>
+  </si>
+  <si>
+    <t>Aufstiege / Belohnungsmarker</t>
+  </si>
+  <si>
+    <t>Augenfarbe</t>
+  </si>
+  <si>
+    <t>Augenfarbe / Colour of eyes / Couleur des yeux</t>
+  </si>
+  <si>
+    <t>Ausdauer</t>
+  </si>
+  <si>
+    <t>Ausrüstungskit</t>
+  </si>
+  <si>
+    <t>AUSRÜSTUNGSKITS / GEAR / VISAS</t>
+  </si>
+  <si>
+    <t>Außer Gefecht</t>
+  </si>
+  <si>
+    <t>Beinhaltet</t>
+  </si>
+  <si>
+    <t>Benommen</t>
+  </si>
+  <si>
+    <t>Berauscht</t>
+  </si>
+  <si>
+    <t>Beruf</t>
+  </si>
+  <si>
+    <t>Beruf / Profession / Profession</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Beschreibung / Description / Description</t>
+  </si>
+  <si>
+    <t>Beweglichkeit</t>
+  </si>
+  <si>
+    <t>Bewegungsunfähig</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>Brennend</t>
+  </si>
+  <si>
+    <t>bringt es zum Laufen</t>
+  </si>
+  <si>
+    <t>Bürokratie</t>
+  </si>
+  <si>
+    <t>Charakter</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung festgelegte Initiative</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung gewürfelte Initiative</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung greift an</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung Rüstung / Schutz</t>
+  </si>
+  <si>
+    <t>Charakter der Einsatzleitung verteidigt sich</t>
+  </si>
+  <si>
+    <t>Charme</t>
+  </si>
+  <si>
+    <t>Chat Name</t>
+  </si>
+  <si>
+    <t>Das Logo und das Emblem der Troubleshooters sind &amp;#169; Helmgast und Green Gorilla und werden hier mit deren freundlicher Genehmigung verwendet.</t>
+  </si>
+  <si>
+    <t>Das Ziel ist AM BODEN</t>
+  </si>
+  <si>
+    <t>Das Ziel ist BEWEGUNGSUNFÄHIG</t>
+  </si>
+  <si>
+    <t>Deckung</t>
+  </si>
+  <si>
+    <t>Du darfst den Schaden neuwürfeln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst den Zustand In tödlicher Gefahr annehmen anstelle Vitalität zu verlieren, wenn du ihn nicht bereits hast.
+Du darfst für den Rest des Kampfes beliebig viele Angriffsproben flippen.
+Wenn dir im laufenden Kampf die Vitalität ausgeht, stirbst du ohne Wenn und Aber.
+Du kannst wählen, den Zustand In tödlicher Gefahr anzunehmen – es ist immer deine freie Entscheidung. Die Gründe, diesen Zustand anzunehmen, sind in der Regel: 
+Du möchtest verhindern, Außer Gefecht zu geraten, weil du schon Verwundet bist.
+Du möchtest in einem kritischen Kampf die Möglichkeit haben, Angriffsproben zu flippen.
+Du möchtest ein Statement setzen, dass dir dieser Kampf wichtig ist.
+Lege den Zustand In tödlicher Gefahr ab, sobald die Kampfszene vorbei ist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst die Zone, in der sich die Ursache deiner Verängstigung befindet, nicht betreten, insofern sie sich nicht sowieso schon in deiner Zone befindet. Angriffsproben sind mit −2 Pips erschwert.
+Hebe den Zustand Verängstigt auf, indem du eine erfolgreiche Probe auf Willenskraft als Hauptaktion durchführst.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst in deinem Zug keine Aktionen ausführen.
+Am Ende deines Zuges führst du eine Probe auf Ausdauer durch. Wenn diese erfolgreich ist, schaltest du bis zum Ende der Szene eine Art von Aktion frei (Freie, Bewegungs-, Haupt- oder Bonusaktion). Je nach Ursache der Paralyse kann es einen Modifikator auf die Probe für diese Aktion geben.
+Hebe den Zustand Paralysiert auf, sobald es entsprechend der Ursache der Paralyse plausibel ist.
+</t>
+  </si>
+  <si>
+    <t>Du kannst keine Bewegungsaktion ausführen. Du kannst eine Sprint-Aktion durchführen, aber sie erfordert eine Probe auf Beweglichkeit. Fernkampfangriffe gegen dich aus einer anderen Zone sind mit −2 Pips erschwert. Deine Verteidigungsproben gegen Nahkampfangriffe oder Fernkampfangriffe aus derselben Zone sind mit −2 Pips erschwert.
+Am Ende deines Zuges kannst du den Zustand Am Boden als Bonusaktion ablegen und aufstehen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst weder eine Bewegungs- noch eine Sprintaktion durchführen.
+Hebe den Zustand Bewegungsunfähig auf, indem du als Hauptaktion eine erfolgreiche Probe auf unbewaffneten Nahkampf, Stärke oder Beweglichkeit durchführst. Es handelt sich um eine vergleichende Probe, wenn ein anderer Charakter dich festhält. Wenn die Probe fehlschlägt oder du im Vergleich unterliegst, bist du immer noch Bewegungsunfähig.
+</t>
+  </si>
+  <si>
+    <t>duckt sich</t>
+  </si>
+  <si>
+    <t>durchsucht die hintersten Ecken</t>
+  </si>
+  <si>
+    <t>Eigenschaften</t>
+  </si>
+  <si>
+    <t>Elektronik</t>
+  </si>
+  <si>
+    <t>entfernt</t>
+  </si>
+  <si>
+    <t>Erfolg!</t>
+  </si>
+  <si>
+    <t>Erfolg! Wähle zwei</t>
+  </si>
+  <si>
+    <t>Erholt sich</t>
+  </si>
+  <si>
+    <t>Erholung</t>
+  </si>
+  <si>
+    <t>Erschöpft</t>
+  </si>
+  <si>
+    <t>Explodierender Würfelpool</t>
+  </si>
+  <si>
+    <t>Fähigkeit</t>
+  </si>
+  <si>
+    <t>Fähigkeiten / Abilities / Capacites</t>
+  </si>
+  <si>
+    <t>Fahrzeuge</t>
+  </si>
+  <si>
+    <t>Fernkampf</t>
+  </si>
+  <si>
+    <t>Fingerfertigkeit</t>
+  </si>
+  <si>
+    <t>fixiert</t>
+  </si>
+  <si>
+    <t>Fließende Sprache</t>
+  </si>
+  <si>
+    <t>fordert einen Gefallen sein</t>
+  </si>
+  <si>
+    <t>Foto des Passinhabers/Photo of holder/Photo du titulaire</t>
+  </si>
+  <si>
+    <t>fummelt in der Kabelage rum</t>
+  </si>
+  <si>
+    <t>Geburtsdatum</t>
+  </si>
+  <si>
+    <t>Geburtsdatum / Date of birth / Date de naissance</t>
+  </si>
+  <si>
+    <t>Geburtsort</t>
+  </si>
+  <si>
+    <t>Geburtsort / Place of birth / Lieu de naissance</t>
+  </si>
+  <si>
+    <t>gegen</t>
+  </si>
+  <si>
+    <t>geht in Deckung</t>
+  </si>
+  <si>
+    <t>Geisteswissenschaften</t>
+  </si>
+  <si>
+    <t>greift an</t>
+  </si>
+  <si>
+    <t>greift an!</t>
+  </si>
+  <si>
+    <t>greift mit ... an</t>
+  </si>
+  <si>
+    <t>Größe</t>
+  </si>
+  <si>
+    <t>Größe / Height / Taille</t>
+  </si>
+  <si>
+    <t>Grundkompetenzen</t>
+  </si>
+  <si>
+    <t>Gutes Karma!</t>
+  </si>
+  <si>
+    <t>Gutes Karma! Handlanger und Untergebene sind AUßER GEFECHT</t>
+  </si>
+  <si>
+    <t>Haarfarbe</t>
+  </si>
+  <si>
+    <t>Haarfarbe / Colour of hair / Couleur des cheveux</t>
+  </si>
+  <si>
+    <t>hackt sich durch die Sicherheit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halbiere vorübergehend deine Maximale Vitalität (aufgerundet). Wenn deine aktuelle Vitalität größer ist als die halbierte Maximale Vitalität, dann passe deine Vitalität entsprechend auf diesen Wert an.
+Der Zustand Erschöpft kann gestapelt werden.
+Hebe einen Zustand Erschöpft auf, nachdem du gegessen, getrunken und ausgeschlafen hast.
+</t>
+  </si>
+  <si>
+    <t>hält die Augen offen</t>
+  </si>
+  <si>
+    <t>Handlanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immer wenn du überrascht bist, auf dem falschen Fuß erwischt wirst oder aus anderen Gründen nicht in der Lage bist zu handeln, erhältst du den Zustand Überrascht.
+Du kannst in deinem Zug lediglich die Freie Aktion ausführen.
+Lege den Zustand Überrascht am Ende deines Zuges ab.
+</t>
+  </si>
+  <si>
+    <t>In Deckung gehen!</t>
+  </si>
+  <si>
+    <t>In tödlicher Gefahr</t>
+  </si>
+  <si>
+    <t>Ingenieurwesen</t>
+  </si>
+  <si>
+    <t>Kampf</t>
+  </si>
+  <si>
+    <t>Kampfkompetenz</t>
+  </si>
+  <si>
+    <t>Kampfwürfe</t>
+  </si>
+  <si>
+    <t>Keine Munition mehr!</t>
+  </si>
+  <si>
+    <t>Kompetenz</t>
+  </si>
+  <si>
+    <t>KOMPETENZEN</t>
+  </si>
+  <si>
+    <t>Kompetenzen / Skills / Competences</t>
+  </si>
+  <si>
+    <t>Komplikation</t>
+  </si>
+  <si>
+    <t>Komplikationen / Complications / Desavantages</t>
+  </si>
+  <si>
+    <t>Kontakte</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>Kosten in Storypunkten</t>
+  </si>
+  <si>
+    <t>Kreditwürdigkeit</t>
+  </si>
+  <si>
+    <t>kümmert sich um den Patienten</t>
+  </si>
+  <si>
+    <t>lässt die Muskeln spielen</t>
+  </si>
+  <si>
+    <t>leert das gesamte Magazin</t>
+  </si>
+  <si>
+    <t>Leutnant</t>
+  </si>
+  <si>
+    <t>Lizenzen fur verbotene Gegenstände /&lt;br/&gt;Licences for dangerous items /&lt;br/&gt;Permis pour objets reglementes</t>
+  </si>
+  <si>
+    <t>macht sich locker</t>
+  </si>
+  <si>
+    <t>Markenzeichen</t>
+  </si>
+  <si>
+    <t>Markiere, wenn benutzt</t>
+  </si>
+  <si>
+    <t>Markiere, wenn getragen</t>
+  </si>
+  <si>
+    <t>Maschinen</t>
+  </si>
+  <si>
+    <t>Max. Vitalität</t>
+  </si>
+  <si>
+    <t>Max. Zustände</t>
+  </si>
+  <si>
+    <t>Maximale Vitalität (basierend auf Kompetenzen und zuständen)</t>
+  </si>
+  <si>
+    <t>Medizin</t>
+  </si>
+  <si>
+    <t>Mist! Ein Fehlschlag</t>
+  </si>
+  <si>
+    <t>Mist! Fehlschlag</t>
+  </si>
+  <si>
+    <t>Muttersprache/n</t>
+  </si>
+  <si>
+    <t>n W6</t>
+  </si>
+  <si>
+    <t>n WP</t>
+  </si>
+  <si>
+    <t>n WX</t>
+  </si>
+  <si>
+    <t>Nachforschungen</t>
+  </si>
+  <si>
+    <t>Nachladen: Geben Sie den niedrigeren Eigenschaftswert ein ODER verwenden Sie 99 für Einzelschuss- und Nahkampfwaffen</t>
+  </si>
+  <si>
+    <t>Nachladen: Geben Sie den niedrigeren Eigenschaftswert ein ODER verwenden Sie 99 für Einzelschuss.</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Nahkampf</t>
+  </si>
+  <si>
+    <t>Name / Name / Nom</t>
+  </si>
+  <si>
+    <t>Name des Passinhabers / Name of bearer / Nom du titulaire</t>
+  </si>
+  <si>
+    <t>Naturwissenschaften</t>
+  </si>
+  <si>
+    <t>Nichtexplodierende Würfelpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimm den Zustand Verwundet an statt Vitalität zu verlieren. Du musst den Zustand Verwundet nicht annehmen, wenn du nicht möchtest. Du kannst den Zustand Verwundet nur annehmen, wenn du ihn noch nicht hast.
+Nach dem Kampf sind alle deine Aufgabenproben um −2 Pips erschwert, bis deine Wunden geheilt sind. Ignoriere die Auswirkungen des Zustands Verwundet für eine Szene, wenn jemand anderes eine erfolgreiche Probe auf Medizin ablegt.
+Hebe den Zustand Verwundet auf nach einer zweitägigen Genesungsszene oder indem du die Zeit zwischen den Abenteuern damit verbringst, dich zu erholen. Bei der Genesungsszene kann es sich um einen Krankenhausbesuch handeln (inklusive unangenehmer Fragen der Polizei), einen Besuch bei einem mit angemessener Bestechung zur Verschwiegenheit verpflichteten Arzt (Probe auf Kreditwürdigkeit bzw. Kontakte) oder die Versorgung durch einen anderen Charakter (Probe auf Medizin).
+</t>
+  </si>
+  <si>
+    <t>NOTFALLPASS&lt;br/&gt;EMERGENCY PASSPORT&lt;br/&gt;PASSEPORT TEMPORAIRE</t>
+  </si>
+  <si>
+    <t>Notizen</t>
+  </si>
+  <si>
+    <t>Nummer des Reisepasses / No of Passport / No du Passeport</t>
+  </si>
+  <si>
+    <t>Panisch</t>
+  </si>
+  <si>
+    <t>Paralysiert</t>
+  </si>
+  <si>
+    <t>Pariert!</t>
+  </si>
+  <si>
+    <t>Passnummer</t>
+  </si>
+  <si>
+    <t>Peng!</t>
+  </si>
+  <si>
+    <t>Peng! Sorgfältig gezielt</t>
+  </si>
+  <si>
+    <t>Plot-Aufhänger</t>
+  </si>
+  <si>
+    <t>probiert es</t>
+  </si>
+  <si>
+    <t>Prozentwürfel</t>
+  </si>
+  <si>
+    <t>Punkte Schaden</t>
+  </si>
+  <si>
+    <t>Punkte Vitalität</t>
+  </si>
+  <si>
+    <t>Rang</t>
+  </si>
+  <si>
+    <t>Ratatatat! Leere dein Magazin</t>
+  </si>
+  <si>
+    <t>Reduziere die Initiative um 2</t>
+  </si>
+  <si>
+    <t>Rüstung</t>
+  </si>
+  <si>
+    <t>Schaden an einem Ziel</t>
+  </si>
+  <si>
+    <t>Schaden für alle Ziele</t>
+  </si>
+  <si>
+    <t>Schaden!</t>
+  </si>
+  <si>
+    <t>Schadenswürfel</t>
+  </si>
+  <si>
+    <t>schaut noch mal ins Handbuch</t>
+  </si>
+  <si>
+    <t>schaut, was das Baby so kann</t>
+  </si>
+  <si>
+    <t>Schleichen</t>
+  </si>
+  <si>
+    <t>Schutz</t>
+  </si>
+  <si>
+    <t>Schutzwert</t>
+  </si>
+  <si>
+    <t>Sicherheitssysteme</t>
+  </si>
+  <si>
+    <t>Spezialist</t>
+  </si>
+  <si>
+    <t>Speziell</t>
+  </si>
+  <si>
+    <t>Sprache</t>
+  </si>
+  <si>
+    <t>Sprachen</t>
+  </si>
+  <si>
+    <t>springt mitten ins Geschehen</t>
+  </si>
+  <si>
+    <t>Staatsangehörigkeit</t>
+  </si>
+  <si>
+    <t>Staatsangehörigkeit / National status / Nationalité</t>
+  </si>
+  <si>
+    <t>Stärke</t>
+  </si>
+  <si>
+    <t>Storypunkte</t>
+  </si>
+  <si>
+    <t>Suchen</t>
+  </si>
+  <si>
+    <t>Summe Pips</t>
+  </si>
+  <si>
+    <t>Taub</t>
+  </si>
+  <si>
+    <t>Täuschung</t>
+  </si>
+  <si>
+    <t>Treffer!</t>
+  </si>
+  <si>
+    <t>Treffer! Wähle aus</t>
+  </si>
+  <si>
+    <t>Überladen</t>
+  </si>
+  <si>
+    <t>Überleben</t>
+  </si>
+  <si>
+    <t>überlegt, was wohl dahintersteckt</t>
+  </si>
+  <si>
+    <t>Überrascht</t>
+  </si>
+  <si>
+    <t>Überschreibungen berechnete Werte. Sollte auf 0 eingestellt werden, es sei denn es ist ein Charakter der Einsatzleitung.</t>
+  </si>
+  <si>
+    <t>Untergebene</t>
+  </si>
+  <si>
+    <t>Unterhaltung</t>
+  </si>
+  <si>
+    <t>Unterschrift</t>
+  </si>
+  <si>
+    <t>Unterschrift des Passinhabers / Holder's signature/ Signature du titulaire</t>
+  </si>
+  <si>
+    <t>Unveränderliche Kennzeichen</t>
+  </si>
+  <si>
+    <t>Unveränderliche Kennzeichen / Distinguishing marks / Signes particuliers</t>
+  </si>
+  <si>
+    <t>Verängstigt</t>
+  </si>
+  <si>
+    <t>verausgabt sich</t>
+  </si>
+  <si>
+    <t>versucht den Schwachpunkt zu finden</t>
+  </si>
+  <si>
+    <t>versucht den Zauber wirken zu lassen</t>
+  </si>
+  <si>
+    <t>versucht die Zusammenhänge zu finden</t>
+  </si>
+  <si>
+    <t>versucht jemanden niederzuringen</t>
+  </si>
+  <si>
+    <t>versucht nicht aufzufallen</t>
+  </si>
+  <si>
+    <t>versucht sich verständlich zu machen</t>
+  </si>
+  <si>
+    <t>verteidigt!</t>
+  </si>
+  <si>
+    <t>Verteidigung</t>
+  </si>
+  <si>
+    <t>Verteidigung mit BEWEGLICHKEIT</t>
+  </si>
+  <si>
+    <t>Verteidigung mit NAHKAMPF</t>
+  </si>
+  <si>
+    <t>Verwundet</t>
+  </si>
+  <si>
+    <t>Visastempel / Visa Stamps / Visas</t>
+  </si>
+  <si>
+    <t>Visastempel /&lt;br/&gt;Visa Stamps /&lt;br/&gt;Visas</t>
+  </si>
+  <si>
+    <t>Vitalität</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Vornamen / Given name / Prénom</t>
+  </si>
+  <si>
+    <t>W100</t>
+  </si>
+  <si>
+    <t>Waffe</t>
+  </si>
+  <si>
+    <t>Waffe klemmt!</t>
+  </si>
+  <si>
+    <t>Wähle aus</t>
+  </si>
+  <si>
+    <t>Wähle zwei von</t>
+  </si>
+  <si>
+    <t>wedelt mit der Kohle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn dir die Vitalität ausgeht, bist du Außer Gefecht und nimmst nicht mehr am Kampf teil. 
+Der Zustand Außer Gefecht wird zu Beginn der nächsten Szene aufgehoben, wenn ein anderer Charakter eine erfolgreiche Probe auf Medizin durchführt.
+Wenn die Probe auf Medizin fehlgeschlagen ist oder dir niemand helfen konnte, wird der Zustand zu Beginn der darauffolgenden Szene aufgehoben.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn du Überladen bist, sind Bewegungs- und Angriffswürfe um −2 Pips erschwert.
+Beende den Zustand Überladen als Freie Aktion, indem du die Gegenstände, die zu schwer sind, ablegst oder fallen lässt.
+Beende den Zustand Überladen als Hauptaktion, wenn du dich aus einem Gurt befreien musst, um die zu schweren Gegenstände abzulegen.
+</t>
+  </si>
+  <si>
+    <t>Wie viele Würfel</t>
+  </si>
+  <si>
+    <t>Willenskraft</t>
+  </si>
+  <si>
+    <t>Wohnort</t>
+  </si>
+  <si>
+    <t>Wohnort / Residence / Domicile</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Wurf</t>
+  </si>
+  <si>
+    <t>Würfel zusammenzählen</t>
+  </si>
+  <si>
+    <t>Würfelt um</t>
+  </si>
+  <si>
+    <t>WX</t>
+  </si>
+  <si>
+    <t>zähmt den Amtsschimmel</t>
+  </si>
+  <si>
+    <t>zeigt sich von seiner besten Seite</t>
+  </si>
+  <si>
+    <t>zeigt was ganz großes Kino ist</t>
+  </si>
+  <si>
+    <t>zieht sich den Labormantel an</t>
+  </si>
+  <si>
+    <t>zielt und ... PENG!</t>
+  </si>
+  <si>
+    <t>Zu Beginn deines Zuges erleidest du 1 WX nicht zu absorbierenden Schaden. Wenn du zu Beginn deines Zuges Außer Gefecht und Brennend bist, erleidest du den Zustand Verwundet.</t>
+  </si>
+  <si>
+    <t>Zugehörigkeit</t>
+  </si>
+  <si>
+    <t>Zustände</t>
+  </si>
+  <si>
+    <t>Mach einen Erholungswurf, nachdem der Schaden ermittelt wurde</t>
+  </si>
+  <si>
+    <t>hängt sich rein</t>
+  </si>
+  <si>
+    <t>lässt Kugeln fliegen</t>
+  </si>
+  <si>
+    <t>versucht einen Bluff</t>
+  </si>
+  <si>
+    <t>zeigt seine natürlichen Instinkte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1607,16 +2397,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDD7E6B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1624,12 +2469,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1650,6 +2603,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{66A46A28-8772-4AE9-917B-2422068CECEB}" name="translation" displayName="translation" ref="A1:C262" totalsRowShown="0">
   <autoFilter ref="A1:C262" xr:uid="{66A46A28-8772-4AE9-917B-2422068CECEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
+    <sortCondition ref="A1:A262"/>
+  </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{40E121FB-34A9-4453-BF29-1C4CC7CADA63}" name="Platzhalter"/>
     <tableColumn id="2" xr3:uid="{3D6A573C-BB13-4A83-8B21-13D73A242124}" name="Standard"/>
@@ -1959,16 +2915,17 @@
   <dimension ref="A1:C262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" customWidth="1"/>
+    <col min="3" max="3" width="155.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -1979,2098 +2936,2882 @@
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C4" s="10" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="14" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="15" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B19" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C20" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C21" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C22" s="4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C23" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C25" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C26" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C27" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C29" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C30" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C32" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C33" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C34" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C35" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B51" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C51" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="358.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B68" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C68" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B70" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>103</v>
-      </c>
-      <c r="B55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>115</v>
-      </c>
-      <c r="B61" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>123</v>
-      </c>
-      <c r="B65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>125</v>
-      </c>
-      <c r="B66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>131</v>
-      </c>
-      <c r="B69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C70" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C71" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C72" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C73" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C74" s="5" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="13" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C75" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C76" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C77" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C78" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C79" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C80" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C81" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="C82" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C83" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>163</v>
-      </c>
-      <c r="B85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C85" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>167</v>
-      </c>
-      <c r="B87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C87" s="4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="C88" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>173</v>
-      </c>
-      <c r="B90" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C90" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C91" s="9" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C92" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="C93" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="396.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C94" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>185</v>
-      </c>
-      <c r="B96" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C96" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C97" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C98" s="9" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>193</v>
-      </c>
-      <c r="B100" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C100" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C101" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="C102" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>201</v>
-      </c>
-      <c r="B104" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="C104" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>205</v>
-      </c>
-      <c r="B106" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="C106" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C109" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>211</v>
-      </c>
-      <c r="B109" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>213</v>
-      </c>
-      <c r="B110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C110" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="180" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="C111" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="C112" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="C113" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="C114" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="C115" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="C116" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="C117" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="C118" s="16" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>233</v>
-      </c>
-      <c r="B120" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>235</v>
-      </c>
-      <c r="B121" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>237</v>
-      </c>
-      <c r="B122" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="C122" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="C123" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="C124" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="C125" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="C126" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="C127" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="78" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="1" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="C128" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="C129" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="C130" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="C131" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+      <c r="C132" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="C133" s="9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="C134" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="C135" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="C136" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="C137" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="C138" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+      <c r="C139" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>274</v>
-      </c>
-      <c r="B141" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="C141" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B144" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>278</v>
-      </c>
-      <c r="B143" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>280</v>
-      </c>
-      <c r="B144" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+      <c r="C144" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+      <c r="C145" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="C146" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="C147" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="C148" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="C149" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="C150" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+      <c r="C151" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+      <c r="C152" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="167.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="C153" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="218.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>302</v>
-      </c>
-      <c r="B155" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>304</v>
-      </c>
-      <c r="B156" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+      <c r="C156" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+      <c r="C157" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+      <c r="C158" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+      <c r="C159" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+      <c r="C160" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+      <c r="C161" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="6" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+      <c r="C162" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+      <c r="C163" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="C164" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="C165" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="C166" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>328</v>
-      </c>
-      <c r="B168" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="C168" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+      <c r="C169" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+      <c r="C170" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="C171" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+      <c r="C172" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+      <c r="C173" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="C174" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B176" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>343</v>
-      </c>
-      <c r="B176" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
+      <c r="C176" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
+      <c r="C177" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
+      <c r="C178" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="C179" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="C180" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="C181" s="11" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+      <c r="C182" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+      <c r="C183" s="9" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" t="s">
+      <c r="C184" s="8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" t="s">
+      <c r="C185" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+      <c r="C186" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" t="s">
+      <c r="C187" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
+      <c r="C188" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" t="s">
+      <c r="C189" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" t="s">
+      <c r="C190" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
+      <c r="C191" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" t="s">
+      <c r="C192" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" t="s">
-        <v>379</v>
-      </c>
-      <c r="B194" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" t="s">
+      <c r="C194" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" t="s">
+      <c r="C195" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" t="s">
+      <c r="C196" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
+      <c r="C197" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" t="s">
+      <c r="C198" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" t="s">
+      <c r="C199" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
+      <c r="C200" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
+      <c r="C201" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" t="s">
+      <c r="C202" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" t="s">
+      <c r="C203" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" t="s">
+      <c r="C204" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" s="1" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" t="s">
+      <c r="C206" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
-        <v>405</v>
-      </c>
-      <c r="B207" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" t="s">
+      <c r="C207" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C208" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" s="1" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
-        <v>411</v>
-      </c>
-      <c r="B210" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C210" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C211" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="1" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C212" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C213" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
-        <v>421</v>
-      </c>
-      <c r="B215" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="C215" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="C216" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C217" s="11" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
-        <v>427</v>
-      </c>
-      <c r="B218" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" t="s">
+      <c r="C218" s="9" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
+      <c r="C219" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
+      <c r="C220" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" t="s">
+      <c r="C221" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
+      <c r="C223" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" t="s">
-        <v>439</v>
-      </c>
-      <c r="B224" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
+      <c r="C224" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
+      <c r="C225" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
+      <c r="C226" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" t="s">
+      <c r="C227" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
+      <c r="C228" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B232" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" t="s">
-        <v>451</v>
-      </c>
-      <c r="B230" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" t="s">
-        <v>453</v>
-      </c>
-      <c r="B231" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" t="s">
-        <v>455</v>
-      </c>
-      <c r="B232" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" t="s">
+      <c r="C232" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" t="s">
+      <c r="C233" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="345.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" t="s">
+      <c r="C234" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" t="s">
+      <c r="C235" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" t="s">
+      <c r="C236" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" t="s">
+      <c r="C237" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" t="s">
+      <c r="C238" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" t="s">
+      <c r="C239" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" t="s">
+      <c r="C240" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
+      <c r="C241" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" t="s">
+      <c r="C242" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
+      <c r="C243" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
+      <c r="C244" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
+      <c r="C245" s="9" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
+      <c r="C246" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" t="s">
+      <c r="C247" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="C248" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
+      <c r="C249" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
+      <c r="C250" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
+      <c r="C251" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" t="s">
+      <c r="C252" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" t="s">
+      <c r="C253" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+      <c r="C254" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" t="s">
+      <c r="C255" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" t="s">
+      <c r="C256" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" t="s">
+      <c r="C257" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" t="s">
+      <c r="C258" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" t="s">
+      <c r="C259" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="C260" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" t="s">
+      <c r="C261" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>515</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
